--- a/01-Excel/02-数学函数/视频操作文件/数学函数.xlsx
+++ b/01-Excel/02-数学函数/视频操作文件/数学函数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/02-数学函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB714B9-145F-A445-8536-3A15154AB436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0EB69-A97C-884A-902D-24C9406271EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -464,47 +464,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -804,7 +764,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="230" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,10 +1008,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H15:H1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01-Excel/02-数学函数/视频操作文件/数学函数.xlsx
+++ b/01-Excel/02-数学函数/视频操作文件/数学函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/02-数学函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0EB69-A97C-884A-902D-24C9406271EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38191D-78CF-5441-AC3E-E9CEA6A077BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="230" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="230" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,6 +829,10 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="4">
+        <f>SQRT(4)</f>
+        <v>2</v>
+      </c>
       <c r="G3" s="5">
         <v>20200111</v>
       </c>
@@ -830,6 +844,10 @@
       </c>
       <c r="K3" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" s="3">
+        <f>AVERAGE(H3:H14)</f>
+        <v>11581.666666666666</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -840,6 +858,10 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="4">
+        <f>POWER(2, 3)</f>
+        <v>8</v>
+      </c>
       <c r="G4" s="5">
         <v>20200101</v>
       </c>
@@ -851,6 +873,10 @@
       </c>
       <c r="K4" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <f>MEDIAN(H3:H14)</f>
+        <v>10250</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -863,6 +889,10 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="4">
+        <f>SUM(H3:H14)</f>
+        <v>138980</v>
+      </c>
       <c r="G5" s="5">
         <v>20200102</v>
       </c>
@@ -874,6 +904,10 @@
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="L5" s="3">
+        <f>MODE(H3:H14)</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -884,6 +918,10 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(1,2,3,4,5)</f>
+        <v>3</v>
+      </c>
       <c r="G6" s="5">
         <v>20200103</v>
       </c>
@@ -900,6 +938,10 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <f>INT(1.7)</f>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
         <v>20200108</v>
@@ -921,6 +963,10 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="4">
+        <f>EVEN(7.78)</f>
+        <v>8</v>
+      </c>
       <c r="G8" s="5">
         <v>20200104</v>
       </c>
@@ -932,6 +978,10 @@
       </c>
       <c r="K8" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="L8" s="3">
+        <f>MAX(H3:H14)-MIN(H3:H14)</f>
+        <v>16120</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -947,6 +997,10 @@
       <c r="K9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="L9" s="3">
+        <f>AVEDEV(H3:H14)</f>
+        <v>3265.2777777777778</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G10" s="5">
@@ -960,6 +1014,10 @@
       </c>
       <c r="K10" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="L10" s="3">
+        <f>STDEV(H3:H14)</f>
+        <v>4513.0554724011208</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -1008,10 +1066,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H15:H1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
